--- a/www/IndicatorsPerCountry/Cambodia_GDPperCapita_TerritorialRef_1953_2012_CCode_116.xlsx
+++ b/www/IndicatorsPerCountry/Cambodia_GDPperCapita_TerritorialRef_1953_2012_CCode_116.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Cambodia_GDPperCapita_TerritorialRef_1953_2012_CCode_116.xlsx
+++ b/www/IndicatorsPerCountry/Cambodia_GDPperCapita_TerritorialRef_1953_2012_CCode_116.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,199 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>482</t>
-  </si>
-  <si>
-    <t>486</t>
-  </si>
-  <si>
-    <t>504</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>542</t>
-  </si>
-  <si>
-    <t>518</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>608</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>671</t>
-  </si>
-  <si>
-    <t>647</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>712</t>
-  </si>
-  <si>
-    <t>674</t>
-  </si>
-  <si>
-    <t>687</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>717</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>777</t>
-  </si>
-  <si>
-    <t>658</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>831</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>852</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>924</t>
-  </si>
-  <si>
-    <t>913</t>
-  </si>
-  <si>
-    <t>881.260453932</t>
-  </si>
-  <si>
-    <t>914.982190492</t>
-  </si>
-  <si>
-    <t>937.12535494</t>
-  </si>
-  <si>
-    <t>931.322364814</t>
-  </si>
-  <si>
-    <t>984.578930445</t>
-  </si>
-  <si>
-    <t>1024.54352874</t>
-  </si>
-  <si>
-    <t>1055.80878528</t>
-  </si>
-  <si>
-    <t>1092.90352596</t>
-  </si>
-  <si>
-    <t>1125.71169598</t>
-  </si>
-  <si>
-    <t>1245.07851205</t>
-  </si>
-  <si>
-    <t>1328.57366635</t>
-  </si>
-  <si>
-    <t>1408.87880539</t>
-  </si>
-  <si>
-    <t>1485.17564156</t>
-  </si>
-  <si>
-    <t>1587.61894787</t>
-  </si>
-  <si>
-    <t>1726.50105293</t>
-  </si>
-  <si>
-    <t>1927.70048896</t>
-  </si>
-  <si>
-    <t>2103.48932542</t>
-  </si>
-  <si>
-    <t>2281.13536786</t>
-  </si>
-  <si>
-    <t>2392.22154707</t>
-  </si>
-  <si>
-    <t>2352.29189997</t>
-  </si>
-  <si>
-    <t>2449.88892565</t>
+    <t>768</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>803</t>
+  </si>
+  <si>
+    <t>792</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>969</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>1070</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1074</t>
+  </si>
+  <si>
+    <t>1095</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>1143</t>
+  </si>
+  <si>
+    <t>1164</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>1049</t>
+  </si>
+  <si>
+    <t>925</t>
+  </si>
+  <si>
+    <t>1025</t>
+  </si>
+  <si>
+    <t>1291</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>1320</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1358</t>
+  </si>
+  <si>
+    <t>1412</t>
+  </si>
+  <si>
+    <t>1476</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1578</t>
+  </si>
+  <si>
+    <t>1490</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>1404</t>
+  </si>
+  <si>
+    <t>1425.04555347179</t>
+  </si>
+  <si>
+    <t>1427.28573103239</t>
+  </si>
+  <si>
+    <t>1384.29250174973</t>
+  </si>
+  <si>
+    <t>1416.46373916282</t>
+  </si>
+  <si>
+    <t>1439.28654353274</t>
+  </si>
+  <si>
+    <t>1450.52512336638</t>
+  </si>
+  <si>
+    <t>1466.36669820384</t>
+  </si>
+  <si>
+    <t>1476.29600833162</t>
+  </si>
+  <si>
+    <t>1586.21045876944</t>
+  </si>
+  <si>
+    <t>1659.08908983484</t>
+  </si>
+  <si>
+    <t>1726.47128431892</t>
+  </si>
+  <si>
+    <t>1770.95711376549</t>
+  </si>
+  <si>
+    <t>1850.20428837473</t>
+  </si>
+  <si>
+    <t>1965.87863893349</t>
+  </si>
+  <si>
+    <t>2144.8449861807</t>
+  </si>
+  <si>
+    <t>2286.38466639636</t>
+  </si>
+  <si>
+    <t>2422.75650105003</t>
+  </si>
+  <si>
+    <t>2482.00683128514</t>
+  </si>
+  <si>
+    <t>2433.30612513675</t>
+  </si>
+  <si>
+    <t>2426.686966285</t>
+  </si>
+  <si>
+    <t>2496</t>
+  </si>
+  <si>
+    <t>2634</t>
+  </si>
+  <si>
+    <t>2782</t>
+  </si>
+  <si>
+    <t>2930</t>
+  </si>
+  <si>
+    <t>3086</t>
+  </si>
+  <si>
+    <t>3251</t>
   </si>
   <si>
     <t>Description</t>
@@ -1351,6 +1369,108 @@
         <v>65</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1366,50 +1486,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
